--- a/soft_computing/index page.xlsx
+++ b/soft_computing/index page.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Playground\msc_practical\soft_computing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AE9471-2A4A-44F1-8F23-0376C877D181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA0A867-9DF1-4BD2-8432-D4C1CAD41936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Sr No</t>
   </si>
@@ -123,12 +123,6 @@
     <t>Write a program for Linear separation.</t>
   </si>
   <si>
-    <t>7B)</t>
-  </si>
-  <si>
-    <t>Write a program for Hopfield network model for associative memory.</t>
-  </si>
-  <si>
     <t>8A)</t>
   </si>
   <si>
@@ -163,6 +157,12 @@
   </si>
   <si>
     <t>Create two classes: City and Fitness using Genetic algorithm.</t>
+  </si>
+  <si>
+    <t>8C)</t>
+  </si>
+  <si>
+    <t>8D)</t>
   </si>
 </sst>
 </file>
@@ -186,7 +186,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -194,15 +194,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -217,6 +229,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,315 +522,327 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="4"/>
-    <col min="3" max="3" width="8.7265625" style="4"/>
-    <col min="4" max="4" width="44.36328125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="8.7265625" style="3"/>
+    <col min="3" max="3" width="8.7265625" style="3"/>
+    <col min="4" max="4" width="44.36328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="2"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+      <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
+      <c r="A10" s="7">
         <v>5</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
+      <c r="A12" s="7">
         <v>6</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="2"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
+      <c r="A14" s="7">
         <v>7</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
+        <v>8</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="2"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
-        <v>8</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="2"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <v>9</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D19" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3" t="s">
+      <c r="E19" s="7"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D20" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3" t="s">
+      <c r="E20" s="7"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
+        <v>10</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
-        <v>10</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3" t="s">
+      <c r="E21" s="7"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D22" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="2"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="2"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/soft_computing/index page.xlsx
+++ b/soft_computing/index page.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Playground\msc_practical\soft_computing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA0A867-9DF1-4BD2-8432-D4C1CAD41936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226D19B9-450B-4AED-BAB9-B906AFF5898B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>Sr No</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>8D)</t>
+  </si>
+  <si>
+    <t>8E)</t>
   </si>
 </sst>
 </file>
@@ -522,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -777,64 +780,68 @@
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="7">
-        <v>9</v>
-      </c>
+      <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="7" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="7"/>
+      <c r="A20" s="7">
+        <v>9</v>
+      </c>
       <c r="B20" s="8"/>
       <c r="C20" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="7">
-        <v>10</v>
-      </c>
+      <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="7"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
+        <v>10</v>
+      </c>
       <c r="B22" s="8"/>
       <c r="C22" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="1"/>
+    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
@@ -843,6 +850,14 @@
       <c r="D24" s="4"/>
       <c r="E24" s="2"/>
       <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
